--- a/bilibiliParactise/4_request_spider/yj_gov_houses/yj_house_week/yj_house_week_2021-11-07.xlsx
+++ b/bilibiliParactise/4_request_spider/yj_gov_houses/yj_house_week/yj_house_week_2021-11-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,1618 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>上东新城</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9491 套</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5442.76 元/㎡</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5117.62 元/㎡</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>丰泰新天地丰泰上院</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1869 套</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6141.32 元/㎡</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4289.94 元/㎡</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>保利中央公园</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7748 套</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6578.81 元/㎡</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5461.28 元/㎡</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>保利公馆</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1916 套</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7761.88 元/㎡</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5582.42 元/㎡</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>恒隆共青湖山庄</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1672 套</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6690.24 元/㎡</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6554.28 元/㎡</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>恒隆御景山庄</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5182 套</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2484</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5812.14 元/㎡</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5108.11 元/㎡</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>敏捷东樾府一期</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>324 套</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5850.44 元/㎡</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>7110.46 元/㎡</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>敏捷东樾府二期</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>275 套</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6095.81 元/㎡</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>文华峯境花园</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1196 套</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6056.57 元/㎡</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>11017.64 元/㎡</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>森林湖花园</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1107 套</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5728.90 元/㎡</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>森林湖花园（B区10幢）</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>100 套</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5339.76 元/㎡</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>森林湖花园（B区11幢）</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>150 套</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5274.78 元/㎡</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>森林湖花园（C区12幢）</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104 套</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5402.86 元/㎡</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13800 元/㎡</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>森林湖花园（C区13-14幢）</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>209 套</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5353.73 元/㎡</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13063.28 元/㎡</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>森林湖花园（C区15-16幢）</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>213 套</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5590.17 元/㎡</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>13417.85 元/㎡</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>淘金湾南区</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>466 套</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6788.34 元/㎡</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>9000 元/㎡</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>美的置业广场三期</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1 套</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>美的置业广场二期</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1865 套</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6125.59 元/㎡</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>美的置业广场四期</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>241 套</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6440.88 元/㎡</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>金山明珠雅苑</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>140 套</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5372.65 元/㎡</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>15106.79 元/㎡</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>金山明珠雅苑A区</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>176 套</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5436.15 元/㎡</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10288.56 元/㎡</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>钧明里广场</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1078 套</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5560.65 元/㎡</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>7942.75 元/㎡</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>锦峰湖景华庭</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1341 套</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7719.19 元/㎡</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>9270.38 元/㎡</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>阳江市粤沛森林湖花园24幢联排住宅</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>48 套</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>11929.09 元/㎡</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>阳江碧桂园凤凰湾一期</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>627 套</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6595.42 元/㎡</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>7635.82 元/㎡</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>阳江碧桂园凤凰湾三期</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>404 套</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7921.63 元/㎡</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>阳江碧桂园凤凰湾二期</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>阳东区</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2004 套</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6295.03 元/㎡</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>9800.73 元/㎡</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>阳江绿地中心B区</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2103 套</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7759.48 元/㎡</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4170.93 元/㎡</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>阳江绿地中心C区</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7 套</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>阳江绿地中心D区</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>828 套</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6147.08 元/㎡</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>阳江绿地中心E区</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>660 套</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5691.57 元/㎡</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0 元/㎡</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
